--- a/Portfolio_Summary.xlsx
+++ b/Portfolio_Summary.xlsx
@@ -492,7 +492,7 @@
         <v>-0.54</v>
       </c>
       <c r="D2" t="n">
-        <v>71973602</v>
+        <v>81620100</v>
       </c>
       <c r="E2" t="n">
         <v>17.5</v>
@@ -520,7 +520,7 @@
         <v>-0.66</v>
       </c>
       <c r="D3" t="n">
-        <v>62954424</v>
+        <v>64585800</v>
       </c>
       <c r="E3" t="n">
         <v>23.91</v>
@@ -548,7 +548,7 @@
         <v>0.41</v>
       </c>
       <c r="D4" t="n">
-        <v>18290178</v>
+        <v>18345800</v>
       </c>
       <c r="E4" t="n">
         <v>40.8</v>
@@ -576,7 +576,7 @@
         <v>-1.31</v>
       </c>
       <c r="D5" t="n">
-        <v>9756362</v>
+        <v>9995700</v>
       </c>
       <c r="E5" t="n">
         <v>76.14</v>
@@ -604,7 +604,7 @@
         <v>0.7</v>
       </c>
       <c r="D6" t="n">
-        <v>25972589</v>
+        <v>26663400</v>
       </c>
       <c r="E6" t="n">
         <v>-5.48</v>
@@ -632,7 +632,7 @@
         <v>0.54</v>
       </c>
       <c r="D7" t="n">
-        <v>165107</v>
+        <v>166400</v>
       </c>
       <c r="E7" t="n">
         <v>11.54</v>
@@ -660,7 +660,7 @@
         <v>0.86</v>
       </c>
       <c r="D8" t="n">
-        <v>155314</v>
+        <v>155300</v>
       </c>
       <c r="E8" t="n">
         <v>20.11</v>
@@ -688,7 +688,7 @@
         <v>-0.64</v>
       </c>
       <c r="D9" t="n">
-        <v>59999304</v>
+        <v>60232300</v>
       </c>
       <c r="E9" t="n">
         <v>12.42</v>
@@ -716,7 +716,7 @@
         <v>-0.34</v>
       </c>
       <c r="D10" t="n">
-        <v>25249414</v>
+        <v>26600700</v>
       </c>
       <c r="E10" t="n">
         <v>55.75</v>
@@ -744,7 +744,7 @@
         <v>-1.01</v>
       </c>
       <c r="D11" t="n">
-        <v>18977351</v>
+        <v>19788300</v>
       </c>
       <c r="E11" t="n">
         <v>19.55</v>
@@ -772,7 +772,7 @@
         <v>-1.93</v>
       </c>
       <c r="D12" t="n">
-        <v>82571488</v>
+        <v>83211500</v>
       </c>
       <c r="E12" t="n">
         <v>67.48</v>
@@ -800,7 +800,7 @@
         <v>-2.82</v>
       </c>
       <c r="D13" t="n">
-        <v>187495138</v>
+        <v>191976900</v>
       </c>
       <c r="E13" t="n">
         <v>47.66</v>

--- a/Portfolio_Summary.xlsx
+++ b/Portfolio_Summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,337 +482,309 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>URA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>663.21</v>
+        <v>49.17</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.54</v>
+        <v>1.18</v>
       </c>
       <c r="D2" t="n">
-        <v>81620100</v>
+        <v>5480597</v>
       </c>
       <c r="E2" t="n">
-        <v>17.5</v>
+        <v>73.29000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>651.9</v>
+        <v>44.19</v>
       </c>
       <c r="G2" t="n">
-        <v>640.58</v>
+        <v>41.55</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>AMZA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>598.2</v>
+        <v>40.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.66</v>
+        <v>-0.02</v>
       </c>
       <c r="D3" t="n">
-        <v>64585800</v>
+        <v>9705</v>
       </c>
       <c r="E3" t="n">
-        <v>23.91</v>
+        <v>8.82</v>
       </c>
       <c r="F3" t="n">
-        <v>582.36</v>
+        <v>41.35</v>
       </c>
       <c r="G3" t="n">
-        <v>573.03</v>
+        <v>41.9</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GLD</t>
+          <t>URNM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.46</v>
+        <v>61.01</v>
       </c>
       <c r="C4" t="n">
-        <v>0.41</v>
+        <v>3.67</v>
       </c>
       <c r="D4" t="n">
-        <v>18345800</v>
+        <v>1381159</v>
       </c>
       <c r="E4" t="n">
-        <v>40.8</v>
+        <v>34.03</v>
       </c>
       <c r="F4" t="n">
-        <v>331.27</v>
+        <v>54.88</v>
       </c>
       <c r="G4" t="n">
-        <v>317.76</v>
+        <v>50.55</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ARKK</t>
+          <t>FCG</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83.58</v>
+        <v>23.97</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.31</v>
+        <v>-0.37</v>
       </c>
       <c r="D5" t="n">
-        <v>9995700</v>
+        <v>387123</v>
       </c>
       <c r="E5" t="n">
-        <v>76.14</v>
+        <v>5.94</v>
       </c>
       <c r="F5" t="n">
-        <v>78.27</v>
+        <v>23.6</v>
       </c>
       <c r="G5" t="n">
-        <v>76.56</v>
+        <v>23.35</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TLT</t>
+          <t>PXE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.31999999999999</v>
+        <v>30.09</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7</v>
+        <v>0.33</v>
       </c>
       <c r="D6" t="n">
-        <v>26663400</v>
+        <v>8302</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.48</v>
+        <v>6.76</v>
       </c>
       <c r="F6" t="n">
-        <v>88.48999999999999</v>
+        <v>29.25</v>
       </c>
       <c r="G6" t="n">
-        <v>87.13</v>
+        <v>28.55</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VPU</t>
+          <t>SMH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.51</v>
+        <v>321.06</v>
       </c>
       <c r="C7" t="n">
-        <v>0.54</v>
+        <v>-0.02</v>
       </c>
       <c r="D7" t="n">
-        <v>166400</v>
+        <v>9575471</v>
       </c>
       <c r="E7" t="n">
-        <v>11.54</v>
+        <v>27.66</v>
       </c>
       <c r="F7" t="n">
-        <v>183.39</v>
+        <v>304.35</v>
       </c>
       <c r="G7" t="n">
-        <v>183.77</v>
+        <v>296.94</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FXU</t>
+          <t>ETEC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.74</v>
+        <v>24.27</v>
       </c>
       <c r="C8" t="n">
-        <v>0.86</v>
+        <v>0.31</v>
       </c>
       <c r="D8" t="n">
-        <v>155300</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>20.11</v>
+        <v>9.52</v>
       </c>
       <c r="F8" t="n">
-        <v>44.17</v>
+        <v>23.84</v>
       </c>
       <c r="G8" t="n">
-        <v>44.23</v>
+        <v>22.59</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>XME</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>254.43</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.64</v>
+        <v>1.33</v>
       </c>
       <c r="D9" t="n">
-        <v>60232300</v>
+        <v>2239414</v>
       </c>
       <c r="E9" t="n">
-        <v>12.42</v>
+        <v>43.41</v>
       </c>
       <c r="F9" t="n">
-        <v>237.15</v>
+        <v>86.2</v>
       </c>
       <c r="G9" t="n">
-        <v>225.65</v>
+        <v>80.95</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>AIRR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>251.66</v>
+        <v>93.98</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.34</v>
+        <v>-0.44</v>
       </c>
       <c r="D10" t="n">
-        <v>26600700</v>
+        <v>776684</v>
       </c>
       <c r="E10" t="n">
-        <v>55.75</v>
+        <v>27.17</v>
       </c>
       <c r="F10" t="n">
-        <v>235.21</v>
+        <v>93.03</v>
       </c>
       <c r="G10" t="n">
-        <v>211.42</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>ATMP</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>509.23</v>
+        <v>29.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.01</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>19788300</v>
+        <v>35604</v>
       </c>
       <c r="E11" t="n">
-        <v>19.55</v>
+        <v>18.15</v>
       </c>
       <c r="F11" t="n">
-        <v>506.55</v>
+        <v>28.66</v>
       </c>
       <c r="G11" t="n">
-        <v>511.53</v>
+        <v>28.63</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>MLPX</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>425.85</v>
+        <v>62.81</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.93</v>
+        <v>0.26</v>
       </c>
       <c r="D12" t="n">
-        <v>83211500</v>
+        <v>143673</v>
       </c>
       <c r="E12" t="n">
-        <v>67.48</v>
+        <v>22.34</v>
       </c>
       <c r="F12" t="n">
-        <v>375.02</v>
+        <v>61.29</v>
       </c>
       <c r="G12" t="n">
-        <v>344.87</v>
+        <v>60.8</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45923</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>NVDA</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>178.43</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-2.82</v>
-      </c>
-      <c r="D13" t="n">
-        <v>191976900</v>
-      </c>
-      <c r="E13" t="n">
-        <v>47.66</v>
-      </c>
-      <c r="F13" t="n">
-        <v>175.35</v>
-      </c>
-      <c r="G13" t="n">
-        <v>176.2</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
     </row>
   </sheetData>
